--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>42383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
